--- a/Documents/Solcharge Ports.xlsx
+++ b/Documents/Solcharge Ports.xlsx
@@ -24,8 +24,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Bracha</author>
+  </authors>
+  <commentList>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bracha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BATTERY_CHARG
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bracha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WIRELESS_CHARG</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>PORT0</t>
   </si>
@@ -105,16 +164,10 @@
     <t>INPUT</t>
   </si>
   <si>
-    <t>0 - Charging , OPEN DRAIN - No Charging/Complete</t>
-  </si>
-  <si>
     <t>Alert indication when specified condition TH's have been met</t>
   </si>
   <si>
     <t>0 - OUT is enabled</t>
-  </si>
-  <si>
-    <t>0 - Sun Charging , 1(?) - No charging</t>
   </si>
   <si>
     <t>LED of the Wireless charger</t>
@@ -151,14 +204,44 @@
     <t>Debug</t>
   </si>
   <si>
-    <t>0xD5</t>
+    <t>האם מגיע לרגל של המיקרו  מתח אנלוגי של VBAT? ואם כן האם יש חלוקת נגדים ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מה בדיוק הכניסה הזו מייצגת? </t>
+  </si>
+  <si>
+    <t>אני מקבל "1" קבוע, לבדוק האם המתח ברגל משתנה בהתאם למצב הטעינה האלחוטית</t>
+  </si>
+  <si>
+    <t>האם יש שימוש לכניסה הזו? רגל של ALERT שצריך להגדיר בשבילה פרמטרים</t>
+  </si>
+  <si>
+    <t>אני מקבל "1" קבוע, לבדוק האם המתח ברגל משתנה ובאיזה מצב</t>
+  </si>
+  <si>
+    <t>צריך לבדוק</t>
+  </si>
+  <si>
+    <t>משום מה לא עובד בפקודת ה BLE שמדליקה את כל הלדים - לבדוק האם בעית חומרה</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>0xDA</t>
+  </si>
+  <si>
+    <t>0 - Sun Charging , 1(?) - No charging (Tri State) - Need PullUp</t>
+  </si>
+  <si>
+    <t>0 - Charging , OPEN DRAIN - No Charging/Complete (Need Pull Up)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +270,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -236,10 +332,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -521,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,49 +631,85 @@
     <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="34.36328125" customWidth="1"/>
+    <col min="9" max="9" width="68.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="H3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="H5">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -587,13 +720,19 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -604,13 +743,19 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -624,13 +769,19 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -644,13 +795,19 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -661,18 +818,24 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -689,7 +852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -706,7 +869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -722,8 +885,11 @@
       <c r="F18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3</v>
       </c>
@@ -740,7 +906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -757,7 +923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5</v>
       </c>
@@ -774,7 +940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -788,10 +954,10 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>7</v>
       </c>
@@ -799,24 +965,24 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -824,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
@@ -835,16 +1001,16 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -871,5 +1037,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>